--- a/report/PlanReport/ProjectPlan.xlsx
+++ b/report/PlanReport/ProjectPlan.xlsx
@@ -1591,12 +1591,13 @@
   <dimension ref="A3:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="21" thickBot="1">

--- a/report/PlanReport/ProjectPlan.xlsx
+++ b/report/PlanReport/ProjectPlan.xlsx
@@ -2,13 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Detailed Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Progress chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Save to File" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>Pre-implementation Research</t>
   </si>
@@ -100,9 +102,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +163,12 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -255,30 +263,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -304,14 +292,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -431,8 +419,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -482,8 +527,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,47 +557,80 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="69">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -558,6 +656,16 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
@@ -580,6 +688,16 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -638,7 +756,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Detailed Plan'!$F$4:$Q$4</c:f>
+              <c:f>'Detailed Plan'!$B$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -683,7 +801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Detailed Plan'!$F$16:$Q$16</c:f>
+              <c:f>'Detailed Plan'!$B$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -739,11 +857,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627956808"/>
-        <c:axId val="627962504"/>
+        <c:axId val="698644680"/>
+        <c:axId val="547732520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="627956808"/>
+        <c:axId val="698644680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +890,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627962504"/>
+        <c:crossAx val="547732520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627962504"/>
+        <c:axId val="547732520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -811,7 +929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627956808"/>
+        <c:crossAx val="698644680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -832,21 +950,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1187,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1576,6 +1696,7 @@
       <c r="A33" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1588,878 +1709,1231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q16"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="21" thickBot="1">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:5" ht="20">
+      <c r="A1" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="45"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickBot="1">
+      <c r="A5" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="64">
+        <f>B4*B3*B2</f>
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" thickBot="1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" thickBot="1">
+      <c r="A8" s="43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="36" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="45">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="49">
+        <f>C10/B$5</f>
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="C10" s="16">
+        <v>100</v>
+      </c>
+      <c r="D10" s="50">
         <v>36</v>
       </c>
-      <c r="G4" s="45">
+      <c r="E10" s="55">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="52">
+        <f t="shared" ref="B11:B18" si="0">C11/B$5</f>
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>100</v>
+      </c>
+      <c r="D11" s="25">
+        <v>36</v>
+      </c>
+      <c r="E11" s="56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="52">
+        <f t="shared" si="0"/>
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="C12" s="17">
+        <v>150</v>
+      </c>
+      <c r="D12" s="25">
         <v>37</v>
       </c>
-      <c r="H4" s="45">
+      <c r="E12" s="56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="52">
+        <f t="shared" si="0"/>
+        <v>0.12087912087912088</v>
+      </c>
+      <c r="C13" s="17">
+        <v>275</v>
+      </c>
+      <c r="D13" s="25">
         <v>38</v>
       </c>
-      <c r="I4" s="45">
+      <c r="E13" s="56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="52">
+        <f t="shared" si="0"/>
+        <v>0.17582417582417584</v>
+      </c>
+      <c r="C14" s="17">
+        <v>400</v>
+      </c>
+      <c r="D14" s="25">
         <v>39</v>
       </c>
-      <c r="J4" s="45">
+      <c r="E14" s="56">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="52">
+        <f t="shared" si="0"/>
+        <v>0.10989010989010989</v>
+      </c>
+      <c r="C15" s="17">
+        <v>250</v>
+      </c>
+      <c r="D15" s="25">
+        <v>39</v>
+      </c>
+      <c r="E15" s="56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="52">
+        <f t="shared" si="0"/>
+        <v>0.13186813186813187</v>
+      </c>
+      <c r="C16" s="17">
+        <v>300</v>
+      </c>
+      <c r="D16" s="25">
+        <v>41</v>
+      </c>
+      <c r="E16" s="56">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="52">
+        <f t="shared" si="0"/>
+        <v>0.17582417582417584</v>
+      </c>
+      <c r="C17" s="17">
+        <v>400</v>
+      </c>
+      <c r="D17" s="25">
+        <v>44</v>
+      </c>
+      <c r="E17" s="56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="53">
+        <f t="shared" si="0"/>
+        <v>0.13186813186813187</v>
+      </c>
+      <c r="C18" s="18">
+        <v>300</v>
+      </c>
+      <c r="D18" s="19">
+        <v>36</v>
+      </c>
+      <c r="E18" s="58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" thickBot="1">
+      <c r="A19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="59">
+        <f>SUM(B10:B18)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="60">
+        <f>SUM(C10:C18)</f>
+        <v>2275</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="61"/>
+    </row>
+    <row r="21" spans="1:13" ht="16" thickBot="1">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="21" thickBot="1">
+      <c r="A22" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="41">
+        <v>36</v>
+      </c>
+      <c r="C23" s="41">
+        <v>37</v>
+      </c>
+      <c r="D23" s="41">
+        <v>38</v>
+      </c>
+      <c r="E23" s="41">
+        <v>39</v>
+      </c>
+      <c r="F23" s="41">
         <v>40</v>
       </c>
-      <c r="K4" s="45">
+      <c r="G23" s="41">
         <v>41</v>
       </c>
-      <c r="L4" s="45">
+      <c r="H23" s="41">
         <v>42</v>
       </c>
-      <c r="M4" s="45">
+      <c r="I23" s="41">
         <v>43</v>
       </c>
-      <c r="N4" s="45">
+      <c r="J23" s="41">
         <v>44</v>
       </c>
-      <c r="O4" s="45">
+      <c r="K23" s="41">
         <v>45</v>
       </c>
-      <c r="P4" s="45">
+      <c r="L23" s="41">
         <v>46</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="M23" s="42">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="16">
-        <f>Overview!B10</f>
-        <v>4.3956043956043959E-2</v>
-      </c>
-      <c r="C5" s="17">
-        <f>Overview!C10</f>
+    <row r="24" spans="1:13">
+      <c r="A24" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="28">
+        <f>IF(AND(B$23&gt;=$D10,B$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="C24" s="16">
+        <f>IF(AND(C$23&gt;=$D10,C$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D24" s="16">
+        <f>IF(AND(D$23&gt;=$D10,D$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E24" s="16">
+        <f>IF(AND(E$23&gt;=$D10,E$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <f>IF(AND(F$23&gt;=$D10,F$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <f>IF(AND(G$23&gt;=$D10,G$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <f>IF(AND(H$23&gt;=$D10,H$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <f>IF(AND(I$23&gt;=$D10,I$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f>IF(AND(J$23&gt;=$D10,J$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <f>IF(AND(K$23&gt;=$D10,K$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <f>IF(AND(L$23&gt;=$D10,L$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="29">
+        <f>IF(AND(M$23&gt;=$D10,M$23&lt;=$E10),$C10/($E10-$D10+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="30">
+        <f>IF(AND(B$23&gt;=$D11,B$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="C25" s="17">
+        <f>IF(AND(C$23&gt;=$D11,C$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="D25" s="17">
+        <f>IF(AND(D$23&gt;=$D11,D$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="E25" s="17">
+        <f>IF(AND(E$23&gt;=$D11,E$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="F25" s="17">
+        <f>IF(AND(F$23&gt;=$D11,F$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <f>IF(AND(G$23&gt;=$D11,G$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <f>IF(AND(H$23&gt;=$D11,H$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <f>IF(AND(I$23&gt;=$D11,I$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <f>IF(AND(J$23&gt;=$D11,J$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <f>IF(AND(K$23&gt;=$D11,K$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <f>IF(AND(L$23&gt;=$D11,L$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="24">
+        <f>IF(AND(M$23&gt;=$D11,M$23&lt;=$E11),$C11/($E11-$D11+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="30">
+        <f>IF(AND(B$23&gt;=$D12,B$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <f>IF(AND(C$23&gt;=$D12,C$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="D26" s="17">
+        <f>IF(AND(D$23&gt;=$D12,D$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="E26" s="17">
+        <f>IF(AND(E$23&gt;=$D12,E$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F26" s="17">
+        <f>IF(AND(F$23&gt;=$D12,F$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <f>IF(AND(G$23&gt;=$D12,G$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <f>IF(AND(H$23&gt;=$D12,H$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <f>IF(AND(I$23&gt;=$D12,I$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <f>IF(AND(J$23&gt;=$D12,J$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <f>IF(AND(K$23&gt;=$D12,K$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <f>IF(AND(L$23&gt;=$D12,L$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="24">
+        <f>IF(AND(M$23&gt;=$D12,M$23&lt;=$E12),$C12/($E12-$D12+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="30">
+        <f>IF(AND(B$23&gt;=$D13,B$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <f>IF(AND(C$23&gt;=$D13,C$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <f>IF(AND(D$23&gt;=$D13,D$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="E27" s="17">
+        <f>IF(AND(E$23&gt;=$D13,E$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="F27" s="17">
+        <f>IF(AND(F$23&gt;=$D13,F$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="G27" s="17">
+        <f>IF(AND(G$23&gt;=$D13,G$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="17">
+        <f>IF(AND(H$23&gt;=$D13,H$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <f>IF(AND(I$23&gt;=$D13,I$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <f>IF(AND(J$23&gt;=$D13,J$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
+        <f>IF(AND(K$23&gt;=$D13,K$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <f>IF(AND(L$23&gt;=$D13,L$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="24">
+        <f>IF(AND(M$23&gt;=$D13,M$23&lt;=$E13),$C13/($E13-$D13+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="30">
+        <f>IF(AND(B$23&gt;=$D14,B$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
+        <f>IF(AND(C$23&gt;=$D14,C$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="17">
+        <f>IF(AND(D$23&gt;=$D14,D$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <f>IF(AND(E$23&gt;=$D14,E$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
         <v>100</v>
       </c>
-      <c r="D5" s="17">
-        <f>Overview!D10</f>
+      <c r="F28" s="17">
+        <f>IF(AND(F$23&gt;=$D14,F$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="G28" s="17">
+        <f>IF(AND(G$23&gt;=$D14,G$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="H28" s="17">
+        <f>IF(AND(H$23&gt;=$D14,H$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="I28" s="17">
+        <f>IF(AND(I$23&gt;=$D14,I$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <f>IF(AND(J$23&gt;=$D14,J$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <f>IF(AND(K$23&gt;=$D14,K$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
+        <f>IF(AND(L$23&gt;=$D14,L$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="24">
+        <f>IF(AND(M$23&gt;=$D14,M$23&lt;=$E14),$C14/($E14-$D14+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="30">
+        <f>IF(AND(B$23&gt;=$D15,B$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <f>IF(AND(C$23&gt;=$D15,C$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="17">
+        <f>IF(AND(D$23&gt;=$D15,D$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <f>IF(AND(E$23&gt;=$D15,E$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F29" s="17">
+        <f>IF(AND(F$23&gt;=$D15,F$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="G29" s="17">
+        <f>IF(AND(G$23&gt;=$D15,G$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="H29" s="17">
+        <f>IF(AND(H$23&gt;=$D15,H$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="I29" s="17">
+        <f>IF(AND(I$23&gt;=$D15,I$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J29" s="17">
+        <f>IF(AND(J$23&gt;=$D15,J$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <f>IF(AND(K$23&gt;=$D15,K$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
+        <f>IF(AND(L$23&gt;=$D15,L$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="24">
+        <f>IF(AND(M$23&gt;=$D15,M$23&lt;=$E15),$C15/($E15-$D15+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="30">
+        <f>IF(AND(B$23&gt;=$D16,B$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <f>IF(AND(C$23&gt;=$D16,C$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <f>IF(AND(D$23&gt;=$D16,D$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <f>IF(AND(E$23&gt;=$D16,E$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <f>IF(AND(F$23&gt;=$D16,F$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <f>IF(AND(G$23&gt;=$D16,G$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>75</v>
+      </c>
+      <c r="H30" s="17">
+        <f>IF(AND(H$23&gt;=$D16,H$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>75</v>
+      </c>
+      <c r="I30" s="17">
+        <f>IF(AND(I$23&gt;=$D16,I$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>75</v>
+      </c>
+      <c r="J30" s="17">
+        <f>IF(AND(J$23&gt;=$D16,J$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>75</v>
+      </c>
+      <c r="K30" s="17">
+        <f>IF(AND(K$23&gt;=$D16,K$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
+        <f>IF(AND(L$23&gt;=$D16,L$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="24">
+        <f>IF(AND(M$23&gt;=$D16,M$23&lt;=$E16),$C16/($E16-$D16+1),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="30">
+        <f>IF(AND(B$23&gt;=$D17,B$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="17">
+        <f>IF(AND(C$23&gt;=$D17,C$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="17">
+        <f>IF(AND(D$23&gt;=$D17,D$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <f>IF(AND(E$23&gt;=$D17,E$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <f>IF(AND(F$23&gt;=$D17,F$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <f>IF(AND(G$23&gt;=$D17,G$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <f>IF(AND(H$23&gt;=$D17,H$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <f>IF(AND(I$23&gt;=$D17,I$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <f>IF(AND(J$23&gt;=$D17,J$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="K31" s="17">
+        <f>IF(AND(K$23&gt;=$D17,K$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="L31" s="17">
+        <f>IF(AND(L$23&gt;=$D17,L$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>100</v>
+      </c>
+      <c r="M31" s="24">
+        <f>IF(AND(M$23&gt;=$D17,M$23&lt;=$E17),$C17/($E17-$D17+1),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="30">
+        <f>IF(AND(B$23&gt;=$D18,B$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="C32" s="17">
+        <f>IF(AND(C$23&gt;=$D18,C$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="D32" s="17">
+        <f>IF(AND(D$23&gt;=$D18,D$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="E32" s="17">
+        <f>IF(AND(E$23&gt;=$D18,E$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="F32" s="17">
+        <f>IF(AND(F$23&gt;=$D18,F$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="G32" s="17">
+        <f>IF(AND(G$23&gt;=$D18,G$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="H32" s="17">
+        <f>IF(AND(H$23&gt;=$D18,H$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="I32" s="17">
+        <f>IF(AND(I$23&gt;=$D18,I$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="J32" s="17">
+        <f>IF(AND(J$23&gt;=$D18,J$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K32" s="17">
+        <f>IF(AND(K$23&gt;=$D18,K$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="L32" s="17">
+        <f>IF(AND(L$23&gt;=$D18,L$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="M32" s="24">
+        <f>IF(AND(M$23&gt;=$D18,M$23&lt;=$E18),$C18/($E18-$D18+1),0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="31">
+        <f>SUM(B24:B32)</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="C33" s="18">
+        <f t="shared" ref="C33:M33" si="1">SUM(C24:C32)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="1"/>
+        <v>341.66666666666669</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="1"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="M33" s="32">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="36">
+        <f>B33</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="C34" s="36">
+        <f>B34+C33</f>
+        <v>216.66666666666669</v>
+      </c>
+      <c r="D34" s="36">
+        <f t="shared" ref="D34:M34" si="2">C34+D33</f>
+        <v>441.66666666666669</v>
+      </c>
+      <c r="E34" s="36">
+        <f t="shared" si="2"/>
+        <v>783.33333333333337</v>
+      </c>
+      <c r="F34" s="36">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="H34" s="36">
+        <f t="shared" si="2"/>
+        <v>1550</v>
+      </c>
+      <c r="I34" s="36">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="J34" s="36">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="K34" s="36">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="L34" s="36">
+        <f t="shared" si="2"/>
+        <v>2150</v>
+      </c>
+      <c r="M34" s="37">
+        <f t="shared" si="2"/>
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16" thickBot="1">
+      <c r="A35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="39">
+        <f>B34/$B$5</f>
+        <v>3.6630036630036632E-2</v>
+      </c>
+      <c r="C35" s="39">
+        <f t="shared" ref="C35:M35" si="3">C34/$B$5</f>
+        <v>9.5238095238095247E-2</v>
+      </c>
+      <c r="D35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.19413919413919414</v>
+      </c>
+      <c r="E35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.34432234432234432</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.68131868131868134</v>
+      </c>
+      <c r="I35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.74725274725274726</v>
+      </c>
+      <c r="J35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.8351648351648352</v>
+      </c>
+      <c r="K35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.89010989010989006</v>
+      </c>
+      <c r="L35" s="39">
+        <f t="shared" si="3"/>
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="M35" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+    </row>
+    <row r="37" spans="1:13" ht="16" thickBot="1"/>
+    <row r="38" spans="1:13" ht="21" thickBot="1">
+      <c r="A38" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="45"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="44">
         <v>36</v>
       </c>
-      <c r="E5" s="18">
-        <f>Overview!E10</f>
+      <c r="C39" s="44">
+        <v>37</v>
+      </c>
+      <c r="D39" s="44">
         <v>38</v>
       </c>
-      <c r="F5" s="30">
-        <f>IF(AND(F$4&gt;=$D5,F$4&lt;=$E5),$C5/($E5-$D5+1),0)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="G5" s="17">
-        <f t="shared" ref="G5:Q5" si="0">IF(AND(G$4&gt;=$D5,G$4&lt;=$E5),$C5/($E5-$D5+1),0)</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="27" t="s">
+      <c r="E39" s="44">
+        <v>39</v>
+      </c>
+      <c r="F39" s="44">
+        <v>40</v>
+      </c>
+      <c r="G39" s="44">
+        <v>41</v>
+      </c>
+      <c r="H39" s="44">
+        <v>42</v>
+      </c>
+      <c r="I39" s="44">
+        <v>43</v>
+      </c>
+      <c r="J39" s="44">
+        <v>44</v>
+      </c>
+      <c r="K39" s="44">
+        <v>45</v>
+      </c>
+      <c r="L39" s="44">
+        <v>46</v>
+      </c>
+      <c r="M39" s="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="55"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19">
-        <f>Overview!B11</f>
-        <v>4.3956043956043959E-2</v>
-      </c>
-      <c r="C6" s="20">
-        <f>Overview!C11</f>
-        <v>100</v>
-      </c>
-      <c r="D6" s="20">
-        <f>Overview!D11</f>
-        <v>36</v>
-      </c>
-      <c r="E6" s="21">
-        <f>Overview!E11</f>
-        <v>39</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" ref="F6:Q13" si="1">IF(AND(F$4&gt;=$D6,F$4&lt;=$E6),$C6/($E6-$D6+1),0)</f>
-        <v>25</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H6" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I6" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="27" t="s">
+      <c r="B41" s="76"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="56"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19">
-        <f>Overview!B12</f>
-        <v>6.5934065934065936E-2</v>
-      </c>
-      <c r="C7" s="20">
-        <f>Overview!C12</f>
-        <v>150</v>
-      </c>
-      <c r="D7" s="20">
-        <f>Overview!D12</f>
-        <v>37</v>
-      </c>
-      <c r="E7" s="21">
-        <f>Overview!E12</f>
-        <v>39</v>
-      </c>
-      <c r="F7" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="27" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="56"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="19">
-        <f>Overview!B13</f>
-        <v>0.12087912087912088</v>
-      </c>
-      <c r="C8" s="20">
-        <f>Overview!C13</f>
-        <v>275</v>
-      </c>
-      <c r="D8" s="20">
-        <f>Overview!D13</f>
-        <v>38</v>
-      </c>
-      <c r="E8" s="21">
-        <f>Overview!E13</f>
-        <v>40</v>
-      </c>
-      <c r="F8" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
-      </c>
-      <c r="J8" s="20">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
-      </c>
-      <c r="K8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="27" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="56"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19">
-        <f>Overview!B14</f>
-        <v>0.17582417582417584</v>
-      </c>
-      <c r="C9" s="20">
-        <f>Overview!C14</f>
-        <v>400</v>
-      </c>
-      <c r="D9" s="20">
-        <f>Overview!D14</f>
-        <v>39</v>
-      </c>
-      <c r="E9" s="21">
-        <f>Overview!E14</f>
-        <v>42</v>
-      </c>
-      <c r="F9" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J9" s="20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K9" s="20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L9" s="20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="27" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="56"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="19">
-        <f>Overview!B15</f>
-        <v>0.10989010989010989</v>
-      </c>
-      <c r="C10" s="20">
-        <f>Overview!C15</f>
-        <v>250</v>
-      </c>
-      <c r="D10" s="20">
-        <f>Overview!D15</f>
-        <v>39</v>
-      </c>
-      <c r="E10" s="21">
-        <f>Overview!E15</f>
-        <v>43</v>
-      </c>
-      <c r="F10" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J10" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K10" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="L10" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="M10" s="20">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="27" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="56"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="19">
-        <f>Overview!B16</f>
-        <v>0.13186813186813187</v>
-      </c>
-      <c r="C11" s="20">
-        <f>Overview!C16</f>
-        <v>300</v>
-      </c>
-      <c r="D11" s="20">
-        <f>Overview!D16</f>
-        <v>41</v>
-      </c>
-      <c r="E11" s="21">
-        <f>Overview!E16</f>
-        <v>44</v>
-      </c>
-      <c r="F11" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="L11" s="20">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M11" s="20">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="O11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="27" t="s">
+      <c r="B46" s="51"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="56"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
-        <f>Overview!B17</f>
-        <v>0.17582417582417584</v>
-      </c>
-      <c r="C12" s="20">
-        <f>Overview!C17</f>
-        <v>400</v>
-      </c>
-      <c r="D12" s="20">
-        <f>Overview!D17</f>
-        <v>44</v>
-      </c>
-      <c r="E12" s="21">
-        <f>Overview!E17</f>
-        <v>47</v>
-      </c>
-      <c r="F12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="O12" s="20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="P12" s="20">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="Q12" s="28">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="29" t="s">
+      <c r="B47" s="51"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="70"/>
+    </row>
+    <row r="48" spans="1:13" ht="16" thickBot="1">
+      <c r="A48" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="19">
-        <f>Overview!B18</f>
-        <v>0.13186813186813187</v>
-      </c>
-      <c r="C13" s="20">
-        <f>Overview!C18</f>
-        <v>300</v>
-      </c>
-      <c r="D13" s="20">
-        <f>Overview!D18</f>
-        <v>36</v>
-      </c>
-      <c r="E13" s="21">
-        <f>Overview!E18</f>
-        <v>47</v>
-      </c>
-      <c r="F13" s="32">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="L13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="M13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="O13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="Q13" s="28">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="22">
-        <f>Overview!B19</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="23">
-        <f>Overview!C19</f>
-        <v>2275</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="33">
-        <f>SUM(F5:F13)</f>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="G14" s="23">
-        <f t="shared" ref="G14:Q14" si="2">SUM(G5:G13)</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="H14" s="23">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="I14" s="23">
-        <f t="shared" si="2"/>
-        <v>341.66666666666669</v>
-      </c>
-      <c r="J14" s="23">
-        <f t="shared" si="2"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="L14" s="23">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="M14" s="23">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="N14" s="23">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O14" s="23">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="P14" s="23">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="Q14" s="34">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39">
-        <f>F14</f>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="G15" s="39">
-        <f>F15+G14</f>
-        <v>216.66666666666669</v>
-      </c>
-      <c r="H15" s="39">
-        <f t="shared" ref="H15:Q15" si="3">G15+H14</f>
-        <v>441.66666666666669</v>
-      </c>
-      <c r="I15" s="39">
-        <f t="shared" si="3"/>
-        <v>783.33333333333337</v>
-      </c>
-      <c r="J15" s="39">
-        <f t="shared" si="3"/>
-        <v>1050</v>
-      </c>
-      <c r="K15" s="39">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
-      <c r="L15" s="39">
-        <f t="shared" si="3"/>
-        <v>1550</v>
-      </c>
-      <c r="M15" s="39">
-        <f t="shared" si="3"/>
-        <v>1700</v>
-      </c>
-      <c r="N15" s="39">
-        <f t="shared" si="3"/>
-        <v>1900</v>
-      </c>
-      <c r="O15" s="39">
-        <f t="shared" si="3"/>
-        <v>2025</v>
-      </c>
-      <c r="P15" s="39">
-        <f t="shared" si="3"/>
-        <v>2150</v>
-      </c>
-      <c r="Q15" s="40">
-        <f t="shared" si="3"/>
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16" thickBot="1">
-      <c r="A16" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43">
-        <f>F15/$C14</f>
-        <v>3.6630036630036632E-2</v>
-      </c>
-      <c r="G16" s="43">
-        <f t="shared" ref="G16:Q16" si="4">G15/$C14</f>
-        <v>9.5238095238095247E-2</v>
-      </c>
-      <c r="H16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.19413919413919414</v>
-      </c>
-      <c r="I16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.34432234432234432</v>
-      </c>
-      <c r="J16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="K16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.68131868131868134</v>
-      </c>
-      <c r="M16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.74725274725274726</v>
-      </c>
-      <c r="N16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.8351648351648352</v>
-      </c>
-      <c r="O16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.89010989010989006</v>
-      </c>
-      <c r="P16" s="43">
-        <f t="shared" si="4"/>
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="Q16" s="44">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+      <c r="B48" s="77"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="73"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="49"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
